--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="459">
   <si>
     <t>iShares MSCI Emerging Markets ETF</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>iShares Core U.S. Aggregate Bond ETF</t>
+  </si>
+  <si>
+    <t>Fund Inception</t>
+  </si>
+  <si>
+    <t>22-Sep-2003</t>
   </si>
   <si>
     <t>Month End Date</t>
@@ -1701,8 +1707,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -1718,95 +1728,95 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6">
         <v>8.19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6">
         <v>4.54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6">
         <v>0.4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6">
         <v>2.42</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>-0.96</v>
@@ -1814,31 +1824,31 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6">
         <v>4.86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>7.66</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6">
         <v>0.42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6">
         <v>3.91</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="6">
         <v>0.22</v>
@@ -1846,31 +1856,31 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6">
         <v>5.93</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6">
         <v>2.16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6">
         <v>0.42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6">
         <v>-1.29</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" s="6">
         <v>1.03</v>
@@ -1878,31 +1888,31 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6">
         <v>7.11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6">
         <v>-7.35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6">
         <v>0.43</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="6">
         <v>-1.96</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" s="6">
         <v>0.77</v>
@@ -1910,31 +1920,31 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6">
         <v>0.65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <v>-6.1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6">
         <v>0.4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="6">
         <v>3.48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J11" s="6">
         <v>1.05</v>
@@ -1942,31 +1952,31 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>8.74</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>7.17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="6">
         <v>0.41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" s="6">
         <v>-0.72</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J12" s="6">
         <v>0.75</v>
@@ -1974,31 +1984,31 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1.67</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6">
         <v>-5.11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6">
         <v>0.63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="6">
         <v>2.28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J13" s="6">
         <v>-2.67</v>
@@ -2006,31 +2016,31 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6">
         <v>7.99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6">
         <v>13.01</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6">
         <v>0.41</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="6">
         <v>-0.51</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14" s="6">
         <v>-0.5</v>
@@ -2038,31 +2048,31 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6">
         <v>2.97</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6">
         <v>6.32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6">
         <v>0.34</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="6">
         <v>0.18</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="6">
         <v>0.51</v>
@@ -2070,31 +2080,31 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6">
         <v>3.76</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6">
         <v>-0.21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6">
         <v>0.58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H16" s="6">
         <v>3.86</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J16" s="6">
         <v>1.02</v>
@@ -2102,31 +2112,31 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6">
         <v>0.79</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6">
         <v>4.74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6">
         <v>0.25</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6">
         <v>-0.81</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J17" s="6">
         <v>1.92</v>
@@ -2134,31 +2144,31 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6">
         <v>-8.23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6">
         <v>2.88</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="6">
         <v>0.66</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="6">
         <v>-5.7</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J18" s="6">
         <v>0.26</v>
@@ -2166,31 +2176,31 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6">
         <v>-0.03</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="6">
         <v>3.09</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="6">
         <v>0.25</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19" s="6">
         <v>0.52</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J19" s="6">
         <v>0.83</v>
@@ -2198,31 +2208,31 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6">
         <v>0.38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="6">
         <v>-0.51</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" s="6">
         <v>0.32</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H20" s="6">
         <v>4.32</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J20" s="6">
         <v>-0.85</v>
@@ -2230,31 +2240,31 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6">
         <v>-2.44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="6">
         <v>2.78</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" s="6">
         <v>0.07</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="6">
         <v>-2.02</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="6">
         <v>0.89</v>
@@ -2262,31 +2272,31 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6">
         <v>3.4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="6">
         <v>-1.22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="6">
         <v>0.01</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H22" s="6">
         <v>0.04</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J22" s="6">
         <v>0.59</v>
@@ -2294,31 +2304,31 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6">
         <v>5.94</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="6">
         <v>-1.99</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="6">
         <v>0.19</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23" s="6">
         <v>0.97</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J23" s="6">
         <v>-0.61</v>
@@ -2326,31 +2336,31 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6">
         <v>3.26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6">
         <v>1.63</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F24" s="6">
         <v>0.21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H24" s="6">
         <v>1.09</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J24" s="6">
         <v>-0.57</v>
@@ -2358,31 +2368,31 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6">
         <v>9.97</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6">
         <v>-5.03</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="6">
         <v>0.1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H25" s="6">
         <v>1.65</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J25" s="6">
         <v>1.32</v>
@@ -2390,31 +2400,31 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" s="6">
         <v>4.35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" s="6">
         <v>-4.55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" s="6">
         <v>0.34</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H26" s="6">
         <v>1.38</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J26" s="6">
         <v>1.1</v>
@@ -2422,31 +2432,31 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B27" s="6">
         <v>0.54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="6">
         <v>10.33</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" s="6">
         <v>0.28</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H27" s="6">
         <v>-4.43</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J27" s="6">
         <v>0.57</v>
@@ -2454,31 +2464,31 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" s="6">
         <v>9.08</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6">
         <v>-2.59</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F28" s="6">
         <v>0.22</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H28" s="6">
         <v>-0.66</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J28" s="6">
         <v>-0.92</v>
@@ -2486,31 +2496,31 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="6">
         <v>-7.24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="6">
         <v>-0.78</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" s="6">
         <v>0.13</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H29" s="6">
         <v>0.7</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J29" s="6">
         <v>1.26</v>
@@ -2518,31 +2528,31 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" s="6">
         <v>-2.57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="6">
         <v>8.34</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" s="6">
         <v>-0.03</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H30" s="6">
         <v>1.32</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J30" s="6">
         <v>-1.07</v>
@@ -2550,31 +2560,31 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6">
         <v>3.59</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="6">
         <v>6.41</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31" s="6">
         <v>-0.03</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="6">
         <v>2.77</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J31" s="6">
         <v>-0.81</v>
@@ -2582,31 +2592,31 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="6">
         <v>3.99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="6">
         <v>5.03</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F32" s="6">
         <v>0.08</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H32" s="6">
         <v>0.36</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J32" s="6">
         <v>0.43</v>
@@ -2614,31 +2624,31 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B33" s="6">
         <v>7.79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="6">
         <v>-1.13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F33" s="6">
         <v>0.07</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H33" s="6">
         <v>0.96</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J33" s="6">
         <v>0.89</v>
@@ -2646,31 +2656,31 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B34" s="6">
         <v>1.18</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="6">
         <v>-7.19</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="6">
         <v>-0.01</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H34" s="6">
         <v>-1.93</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J34" s="6">
         <v>0.0</v>
@@ -2678,31 +2688,31 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B35" s="6">
         <v>8.47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="6">
         <v>3.63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" s="6">
         <v>0.03</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H35" s="6">
         <v>1.34</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J35" s="6">
         <v>0.32</v>
@@ -2710,31 +2720,31 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B36" s="6">
         <v>-6.73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="6">
         <v>1.03</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F36" s="6">
         <v>0.01</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" s="6">
         <v>0.67</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J36" s="6">
         <v>-1.01</v>
@@ -2742,31 +2752,31 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B37" s="6">
         <v>7.26</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="6">
         <v>5.07</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F37" s="6">
         <v>0.04</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" s="6">
         <v>-1.24</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J37" s="6">
         <v>-0.23</v>
@@ -2774,31 +2784,31 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" s="6">
         <v>5.88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="6">
         <v>1.0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F38" s="6">
         <v>0.02</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H38" s="6">
         <v>-0.55</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J38" s="6">
         <v>-0.13</v>
@@ -2806,31 +2816,31 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B39" s="6">
         <v>12.9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="6">
         <v>-5.34</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F39" s="6">
         <v>0.0</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H39" s="6">
         <v>2.59</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J39" s="6">
         <v>0.2</v>
@@ -2838,31 +2848,31 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B40" s="6">
         <v>-2.33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="6">
         <v>1.35</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" s="6">
         <v>0.03</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" s="6">
         <v>1.73</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J40" s="6">
         <v>1.32</v>
@@ -2870,31 +2880,31 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B41" s="6">
         <v>1.74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="6">
         <v>-0.6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F41" s="6">
         <v>-0.04</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H41" s="6">
         <v>0.38</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J41" s="6">
         <v>1.48</v>
@@ -2902,31 +2912,31 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B42" s="6">
         <v>6.18</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="6">
         <v>2.64</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F42" s="6">
         <v>0.03</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H42" s="6">
         <v>-2.01</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J42" s="6">
         <v>0.89</v>
@@ -2934,31 +2944,31 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B43" s="6">
         <v>-11.15</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="6">
         <v>0.43</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F43" s="6">
         <v>-0.01</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H43" s="6">
         <v>1.99</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J43" s="6">
         <v>0.67</v>
@@ -2966,31 +2976,31 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B44" s="6">
         <v>-0.12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="6">
         <v>2.95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F44" s="6">
         <v>0.01</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H44" s="6">
         <v>-1.76</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J44" s="6">
         <v>1.13</v>
@@ -2998,31 +3008,31 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B45" s="6">
         <v>2.14</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="6">
         <v>2.45</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F45" s="6">
         <v>-0.01</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H45" s="6">
         <v>-1.21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J45" s="6">
         <v>-0.56</v>
@@ -3030,31 +3040,31 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B46" s="6">
         <v>1.92</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="6">
         <v>3.44</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F46" s="6">
         <v>0.02</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H46" s="6">
         <v>0.58</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J46" s="6">
         <v>-0.04</v>
@@ -3062,31 +3072,31 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47" s="6">
         <v>-0.25</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="6">
         <v>-2.37</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F47" s="6">
         <v>0.04</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H47" s="6">
         <v>1.21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J47" s="6">
         <v>1.5</v>
@@ -3094,31 +3104,31 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B48" s="6">
         <v>5.75</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="6">
         <v>6.23</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F48" s="6">
         <v>0.01</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H48" s="6">
         <v>-0.55</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J48" s="6">
         <v>-0.08</v>
@@ -3126,31 +3136,31 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B49" s="6">
         <v>7.25</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="6">
         <v>-0.35</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F49" s="6">
         <v>0.04</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H49" s="6">
         <v>-0.08</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J49" s="6">
         <v>0.51</v>
@@ -3158,31 +3168,31 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B50" s="6">
         <v>4.96</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="6">
         <v>4.71</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F50" s="6">
         <v>0.01</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H50" s="6">
         <v>-1.41</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J50" s="6">
         <v>-0.78</v>
@@ -3190,31 +3200,31 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51" s="6">
         <v>-0.62</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="6">
         <v>4.97</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F51" s="6">
         <v>0.02</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H51" s="6">
         <v>-0.66</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J51" s="6">
         <v>-0.36</v>
@@ -3222,31 +3232,31 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" s="6">
         <v>-1.64</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="6">
         <v>3.47</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F52" s="6">
         <v>0.01</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H52" s="6">
         <v>-0.03</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J52" s="6">
         <v>0.78</v>
@@ -3254,31 +3264,31 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B53" s="6">
         <v>4.37</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="6">
         <v>2.99</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F53" s="6">
         <v>0.02</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H53" s="6">
         <v>0.31</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J53" s="6">
         <v>1.18</v>
@@ -3286,31 +3296,31 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B54" s="6">
         <v>4.47</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="6">
         <v>-1.94</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F54" s="6">
         <v>0.01</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H54" s="6">
         <v>1.57</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J54" s="6">
         <v>0.75</v>
@@ -3318,31 +3328,31 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B55" s="6">
         <v>4.03</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="6">
         <v>5.1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F55" s="6">
         <v>0.01</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H55" s="6">
         <v>1.87</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J55" s="6">
         <v>0.96</v>
@@ -3350,31 +3360,31 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56" s="6">
         <v>3.62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="6">
         <v>-2.69</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F56" s="6">
         <v>0.03</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H56" s="6">
         <v>1.11</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J56" s="6">
         <v>1.79</v>
@@ -3382,31 +3392,31 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B57" s="6">
         <v>3.11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="6">
         <v>-0.37</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F57" s="6">
         <v>0.02</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H57" s="6">
         <v>0.58</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J57" s="6">
         <v>0.22</v>
@@ -3414,31 +3424,31 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B58" s="6">
         <v>-0.59</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="6">
         <v>4.49</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F58" s="6">
         <v>0.01</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H58" s="6">
         <v>1.28</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J58" s="6">
         <v>1.81</v>
@@ -3446,31 +3456,31 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B59" s="6">
         <v>11.18</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="6">
         <v>3.05</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F59" s="6">
         <v>0.01</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H59" s="6">
         <v>-1.31</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J59" s="6">
         <v>0.37</v>
@@ -3478,31 +3488,31 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B60" s="6">
         <v>10.36</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="6">
         <v>1.13</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F60" s="6">
         <v>-0.03</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H60" s="6">
         <v>-0.34</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J60" s="6">
         <v>0.16</v>
@@ -3510,31 +3520,31 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="6">
         <v>-6.82</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="6">
         <v>5.04</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F61" s="6">
         <v>0.05</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" s="6">
         <v>2.12</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J61" s="6">
         <v>-0.25</v>
@@ -3542,31 +3552,31 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6">
         <v>-0.06</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="6">
         <v>-0.79</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F62" s="6">
         <v>-0.01</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H62" s="6">
         <v>-0.16</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J62" s="6">
         <v>-0.87</v>
@@ -3574,31 +3584,31 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6">
         <v>-11.15</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="6">
         <v>2.67</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F63" s="6">
         <v>0.01</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H63" s="6">
         <v>0.6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J63" s="6">
         <v>0.04</v>
@@ -3606,31 +3616,31 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" s="6">
         <v>5.17</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="6">
         <v>4.47</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F64" s="6">
         <v>0.0</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H64" s="6">
         <v>-1.46</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J64" s="6">
         <v>-0.09</v>
@@ -3638,31 +3648,31 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" s="6">
         <v>-5.21</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="6">
         <v>-2.35</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F65" s="6">
         <v>-0.01</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H65" s="6">
         <v>-0.48</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J65" s="6">
         <v>0.97</v>
@@ -3670,31 +3680,31 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="6">
         <v>9.02</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="6">
         <v>-2.06</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F66" s="6">
         <v>0.0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H66" s="6">
         <v>2.19</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J66" s="6">
         <v>-1.47</v>
@@ -3702,31 +3712,31 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="6">
         <v>3.06</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="6">
         <v>7.18</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F67" s="6">
         <v>-0.02</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H67" s="6">
         <v>2.15</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J67" s="6">
         <v>-2.18</v>
@@ -3734,31 +3744,31 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6">
         <v>-9.09</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D68" s="6">
         <v>-2.36</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F68" s="6">
         <v>0.0</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H68" s="6">
         <v>0.32</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J68" s="6">
         <v>3.96</v>
@@ -3766,31 +3776,31 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="6">
         <v>-4.65</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" s="6">
         <v>1.86</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F69" s="6">
         <v>0.01</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H69" s="6">
         <v>1.12</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J69" s="6">
         <v>3.45</v>
@@ -3798,31 +3808,31 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="6">
         <v>-7.05</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D70" s="6">
         <v>2.26</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F70" s="6">
         <v>0.01</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H70" s="6">
         <v>3.78</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J70" s="6">
         <v>-1.12</v>
@@ -3830,31 +3840,31 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="6">
         <v>-15.55</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="6">
         <v>-2.44</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F71" s="6">
         <v>-0.01</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H71" s="6">
         <v>0.07</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J71" s="6">
         <v>-0.38</v>
@@ -3862,31 +3872,31 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="6">
         <v>-25.71</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D72" s="6">
         <v>4.38</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F72" s="6">
         <v>0.02</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H72" s="6">
         <v>3.36</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J72" s="6">
         <v>1.21</v>
@@ -3894,31 +3904,31 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="6">
         <v>-8.87</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D73" s="6">
         <v>-6.72</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F73" s="6">
         <v>-0.01</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H73" s="6">
         <v>1.41</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J73" s="6">
         <v>0.36</v>
@@ -3926,31 +3936,31 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="6">
         <v>9.04</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D74" s="6">
         <v>-2.17</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F74" s="6">
         <v>0.0</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H74" s="6">
         <v>1.39</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J74" s="6">
         <v>0.67</v>
@@ -3958,31 +3968,31 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="6">
         <v>-7.63</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D75" s="6">
         <v>11.21</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F75" s="6">
         <v>0.0</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H75" s="6">
         <v>-2.46</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J75" s="6">
         <v>0.61</v>
@@ -3990,31 +4000,31 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="6">
         <v>-5.93</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D76" s="6">
         <v>0.49</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F76" s="6">
         <v>0.01</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H76" s="6">
         <v>-1.73</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J76" s="6">
         <v>1.47</v>
@@ -4022,31 +4032,31 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="6">
         <v>15.33</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D77" s="6">
         <v>-1.52</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F77" s="6">
         <v>0.01</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H77" s="6">
         <v>0.97</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J77" s="6">
         <v>0.99</v>
@@ -4054,31 +4064,31 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="6">
         <v>16.01</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D78" s="6">
         <v>-6.82</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F78" s="6">
         <v>0.0</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H78" s="6">
         <v>0.6</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J78" s="6">
         <v>1.1</v>
@@ -4086,31 +4096,31 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="6">
         <v>15.09</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D79" s="6">
         <v>-1.66</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F79" s="6">
         <v>-0.01</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H79" s="6">
         <v>1.67</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J79" s="6">
         <v>0.39</v>
@@ -4118,31 +4128,31 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="6">
         <v>-1.46</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D80" s="6">
         <v>6.74</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F80" s="6">
         <v>0.0</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H80" s="6">
         <v>-0.05</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J80" s="6">
         <v>1.37</v>
@@ -4150,31 +4160,31 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="6">
         <v>11.42</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D81" s="6">
         <v>-3.15</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F81" s="6">
         <v>0.02</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H81" s="6">
         <v>-1.0</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J81" s="6">
         <v>-1.6</v>
@@ -4182,31 +4192,31 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="6">
         <v>-1.14</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D82" s="6">
         <v>4.38</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F82" s="6">
         <v>-0.01</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H82" s="6">
         <v>7.84</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J82" s="6">
         <v>1.43</v>
@@ -4214,31 +4224,31 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="6">
         <v>9.22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D83" s="6">
         <v>-2.34</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F83" s="6">
         <v>-0.01</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H83" s="6">
         <v>5.13</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J83" s="6">
         <v>0.33</v>
@@ -4246,31 +4256,31 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="6">
         <v>-1.4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D84" s="6">
         <v>7.1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F84" s="6">
         <v>0.03</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H84" s="6">
         <v>-3.77</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J84" s="6">
         <v>-0.12</v>
@@ -4278,31 +4288,31 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B85" s="6">
         <v>5.73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D85" s="6">
         <v>1.02</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F85" s="6">
         <v>-0.01</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H85" s="6">
         <v>-0.83</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J85" s="6">
         <v>1.05</v>
@@ -4310,31 +4320,31 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B86" s="6">
         <v>3.9</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D86" s="6">
         <v>2.2</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F86" s="6">
         <v>0.02</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H86" s="6">
         <v>3.39</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J86" s="6">
         <v>0.83</v>
@@ -4342,31 +4352,31 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B87" s="6">
         <v>-6.75</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D87" s="6">
         <v>-1.52</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F87" s="6">
         <v>-0.01</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H87" s="6">
         <v>-2.76</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J87" s="6">
         <v>1.65</v>
@@ -4374,31 +4384,31 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="6">
         <v>0.41</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D88" s="6">
         <v>0.37</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F88" s="6">
         <v>-0.02</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H88" s="6">
         <v>-2.13</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J88" s="6">
         <v>1.06</v>
@@ -4406,31 +4416,31 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B89" s="6">
         <v>7.93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D89" s="6">
         <v>1.11</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F89" s="6">
         <v>0.01</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H89" s="6">
         <v>-0.45</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J89" s="6">
         <v>1.21</v>
@@ -4438,31 +4448,31 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="6">
         <v>0.71</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D90" s="6">
         <v>5.21</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F90" s="6">
         <v>0.0</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H90" s="6">
         <v>0.69</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J90" s="6">
         <v>0.06</v>
@@ -4470,31 +4480,31 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B91" s="6">
         <v>-9.7</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D91" s="6">
         <v>4.31</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F91" s="6">
         <v>0.0</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H91" s="6">
         <v>0.92</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J91" s="6">
         <v>0.31</v>
@@ -4502,31 +4512,31 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B92" s="6">
         <v>-0.55</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D92" s="6">
         <v>2.02</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F92" s="6">
         <v>0.02</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H92" s="6">
         <v>1.04</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J92" s="6">
         <v>-0.56</v>
@@ -4534,31 +4544,31 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B93" s="6">
         <v>9.02</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D93" s="6">
         <v>2.72</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F93" s="6">
         <v>0.01</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H93" s="6">
         <v>-0.11</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J93" s="6">
         <v>-1.07</v>
@@ -4566,31 +4576,31 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B94" s="6">
         <v>-2.48</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D94" s="6">
         <v>3.81</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F94" s="6">
         <v>-0.02</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H94" s="6">
         <v>2.08</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J94" s="6">
         <v>0.07</v>
@@ -4598,31 +4608,31 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B95" s="6">
         <v>11.22</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D95" s="6">
         <v>-2.42</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F95" s="6">
         <v>0.01</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H95" s="6">
         <v>-4.34</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J95" s="6">
         <v>0.23</v>
@@ -4630,31 +4640,31 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B96" s="6">
         <v>3.02</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D96" s="6">
         <v>4.13</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F96" s="6">
         <v>0.0</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H96" s="6">
         <v>2.21</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J96" s="6">
         <v>0.02</v>
@@ -4662,31 +4672,31 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B97" s="6">
         <v>-2.65</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D97" s="6">
         <v>1.98</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F97" s="6">
         <v>0.0</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H97" s="6">
         <v>0.6</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J97" s="6">
         <v>1.22</v>
@@ -4694,31 +4704,31 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B98" s="6">
         <v>6.95</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D98" s="6">
         <v>-0.14</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F98" s="6">
         <v>0.01</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H98" s="6">
         <v>-1.25</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J98" s="6">
         <v>1.3</v>
@@ -4726,31 +4736,31 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B99" s="6">
         <v>-3.37</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D99" s="6">
         <v>4.51</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F99" s="6">
         <v>-0.02</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H99" s="6">
         <v>1.62</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J99" s="6">
         <v>-0.34</v>
@@ -4758,31 +4768,31 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B100" s="6">
         <v>-0.33</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D100" s="6">
         <v>2.01</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F100" s="6">
         <v>0.0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H100" s="6">
         <v>2.8</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J100" s="6">
         <v>1.56</v>
@@ -4790,31 +4800,31 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B101" s="6">
         <v>5.7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D101" s="6">
         <v>0.49</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F101" s="6">
         <v>-0.01</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H101" s="6">
         <v>3.11</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J101" s="6">
         <v>1.46</v>
@@ -4822,31 +4832,31 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B102" s="6">
         <v>3.06</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D102" s="6">
         <v>8.66</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F102" s="6">
         <v>0.02</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H102" s="6">
         <v>1.05</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J102" s="6">
         <v>0.73</v>
@@ -4854,31 +4864,31 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B103" s="6">
         <v>-2.91</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D103" s="6">
         <v>-1.26</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F103" s="6">
         <v>0.01</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H103" s="6">
         <v>3.33</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J103" s="6">
         <v>0.12</v>
@@ -4886,31 +4896,31 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B104" s="6">
         <v>-1.56</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D104" s="6">
         <v>-3.96</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F104" s="6">
         <v>0.01</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H104" s="6">
         <v>0.01</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J104" s="6">
         <v>-0.08</v>
@@ -4918,31 +4928,31 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B105" s="6">
         <v>-0.61</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D105" s="6">
         <v>0.38</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F105" s="6">
         <v>0.01</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H105" s="6">
         <v>-0.08</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J105" s="6">
         <v>1.05</v>
@@ -4950,31 +4960,31 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B106" s="6">
         <v>-8.97</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D106" s="6">
         <v>5.62</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F106" s="6">
         <v>-0.01</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H106" s="6">
         <v>-0.8</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J106" s="6">
         <v>0.9</v>
@@ -4982,31 +4992,31 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B107" s="6">
         <v>-14.82</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D107" s="6">
         <v>1.06</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F107" s="6">
         <v>0.01</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H107" s="6">
         <v>-3.46</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J107" s="6">
         <v>-0.05</v>
@@ -5014,31 +5024,31 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B108" s="6">
         <v>13.44</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D108" s="6">
         <v>2.72</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F108" s="6">
         <v>-0.01</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H108" s="6">
         <v>0.03</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J108" s="6">
         <v>-0.6</v>
@@ -5046,31 +5056,31 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B109" s="6">
         <v>-6.37</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D109" s="6">
         <v>5.95</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F109" s="6">
         <v>0.0</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H109" s="6">
         <v>-0.21</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J109" s="6">
         <v>1.11</v>
@@ -5078,31 +5088,31 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B110" s="6">
         <v>-1.16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D110" s="6">
         <v>-0.32</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F110" s="6">
         <v>0.04</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H110" s="6">
         <v>-0.05</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J110" s="6">
         <v>0.91</v>
@@ -5110,31 +5120,31 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B111" s="6">
         <v>11.18</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D111" s="6">
         <v>-8.65</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F111" s="6">
         <v>-0.04</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H111" s="6">
         <v>1.57</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J111" s="6">
         <v>0.01</v>
@@ -5142,31 +5152,31 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B112" s="6">
         <v>5.73</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D112" s="6">
         <v>-0.15</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F112" s="6">
         <v>-0.04</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H112" s="6">
         <v>2.58</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J112" s="6">
         <v>1.38</v>
@@ -5174,31 +5184,31 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B113" s="6">
         <v>-3.28</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D113" s="6">
         <v>-8.87</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F113" s="6">
         <v>0.0</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H113" s="6">
         <v>-0.42</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J113" s="6">
         <v>0.04</v>
@@ -5206,31 +5216,31 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B114" s="6">
         <v>-1.16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D114" s="6">
         <v>9.12</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F114" s="6">
         <v>0.05</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H114" s="6">
         <v>2.98</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J114" s="6">
         <v>0.1</v>
@@ -5238,31 +5248,31 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B115" s="6">
         <v>-11.48</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D115" s="6">
         <v>2.88</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F115" s="6">
         <v>0.04</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H115" s="6">
         <v>4.87</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J115" s="6">
         <v>0.2</v>
@@ -5270,31 +5280,31 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B116" s="6">
         <v>4.02</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D116" s="6">
         <v>4.0</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F116" s="6">
         <v>0.06</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H116" s="6">
         <v>1.9</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J116" s="6">
         <v>0.15</v>
@@ -5302,31 +5312,31 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B117" s="6">
         <v>1.81</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D117" s="6">
         <v>5.46</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F117" s="6">
         <v>0.04</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H117" s="6">
         <v>-1.41</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J117" s="6">
         <v>-0.16</v>
@@ -5334,31 +5344,31 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B118" s="6">
         <v>-0.41</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D118" s="6">
         <v>-8.29</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F118" s="6">
         <v>0.0</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H118" s="6">
         <v>1.01</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J118" s="6">
         <v>-0.64</v>
@@ -5366,31 +5376,31 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B119" s="6">
         <v>5.94</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D119" s="6">
         <v>7.66</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F119" s="6">
         <v>0.1</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H119" s="6">
         <v>1.74</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J119" s="6">
         <v>0.5</v>
@@ -5398,31 +5408,31 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B120" s="6">
         <v>-0.65</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D120" s="6">
         <v>2.33</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F120" s="6">
         <v>0.0</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H120" s="6">
         <v>0.94</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J120" s="6">
         <v>0.04</v>
@@ -5430,31 +5440,31 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B121" s="6">
         <v>1.24</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D121" s="6">
         <v>-1.91</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F121" s="6">
         <v>0.01</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H121" s="6">
         <v>-0.97</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J121" s="6">
         <v>1.03</v>
@@ -5462,31 +5472,31 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B122" s="6">
         <v>4.95</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D122" s="6">
         <v>0.79</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F122" s="6">
         <v>0.05</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H122" s="6">
         <v>-1.62</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J122" s="6">
         <v>-1.84</v>
@@ -5494,31 +5504,31 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B123" s="6">
         <v>1.26</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D123" s="6">
         <v>4.33</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F123" s="6">
         <v>0.03</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H123" s="6">
         <v>2.53</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J123" s="6">
         <v>-1.6</v>
@@ -5526,31 +5536,31 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B124" s="6">
         <v>-1.43</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D124" s="6">
         <v>4.05</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F124" s="6">
         <v>-0.01</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H124" s="6">
         <v>2.77</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J124" s="6">
         <v>0.13</v>
@@ -5558,31 +5568,31 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B125" s="6">
         <v>-1.95</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D125" s="6">
         <v>3.95</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F125" s="6">
         <v>0.05</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H125" s="6">
         <v>-0.43</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J125" s="6">
         <v>-0.51</v>
@@ -5590,31 +5600,31 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B126" s="6">
         <v>0.91</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D126" s="6">
         <v>2.97</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F126" s="6">
         <v>0.06</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H126" s="6">
         <v>1.35</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J126" s="6">
         <v>0.94</v>
@@ -5622,31 +5632,31 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B127" s="6">
         <v>-2.74</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D127" s="6">
         <v>-5.81</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F127" s="6">
         <v>0.05</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H127" s="6">
         <v>-0.11</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J127" s="6">
         <v>0.79</v>
@@ -5654,31 +5664,31 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B128" s="6">
         <v>-6.3</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D128" s="6">
         <v>-7.61</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F128" s="6">
         <v>-0.02</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H128" s="6">
         <v>-0.24</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J128" s="6">
         <v>-0.38</v>
@@ -5686,31 +5696,31 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B129" s="6">
         <v>1.08</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D129" s="6">
         <v>15.19</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F129" s="6">
         <v>0.03</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H129" s="6">
         <v>-0.32</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J129" s="6">
         <v>-0.58</v>
@@ -5718,31 +5728,31 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B130" s="6">
         <v>-1.79</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D130" s="6">
         <v>6.25</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F130" s="6">
         <v>0.05</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H130" s="6">
         <v>1.0</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J130" s="6">
         <v>1.51</v>
@@ -5750,31 +5760,31 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B131" s="6">
         <v>6.48</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D131" s="6">
         <v>6.32</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F131" s="6">
         <v>0.06</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H131" s="6">
         <v>-0.8</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J131" s="6">
         <v>0.54</v>
@@ -5782,31 +5792,31 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B132" s="6">
         <v>4.84</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D132" s="6">
         <v>7.37</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F132" s="6">
         <v>0.1</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H132" s="6">
         <v>-1.54</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J132" s="6">
         <v>-0.19</v>
@@ -5814,31 +5824,31 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B133" s="6">
         <v>-1.54</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D133" s="6">
         <v>11.11</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F133" s="6">
         <v>0.09</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H133" s="6">
         <v>1.1</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J133" s="6">
         <v>0.85</v>
@@ -5846,31 +5856,31 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B134" s="6">
         <v>-1.37</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D134" s="6">
         <v>-5.7</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F134" s="6">
         <v>0.05</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H134" s="6">
         <v>0.4</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J134" s="6">
         <v>1.14</v>
@@ -5878,31 +5888,31 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B135" s="6">
         <v>-6.61</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D135" s="6">
         <v>-3.19</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F135" s="6">
         <v>0.07</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H135" s="6">
         <v>1.44</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J135" s="6">
         <v>0.05</v>
@@ -5910,31 +5920,31 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B136" s="6">
         <v>3.11</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D136" s="6">
         <v>11.06</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F136" s="6">
         <v>0.05</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H136" s="6">
         <v>-3.2</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J136" s="6">
         <v>-0.23</v>
@@ -5942,31 +5952,31 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B137" s="6">
         <v>3.04</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D137" s="6">
         <v>5.06</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F137" s="6">
         <v>0.08</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H137" s="6">
         <v>-2.45</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J137" s="6">
         <v>1.09</v>
@@ -5974,31 +5984,31 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B138" s="6">
         <v>0.34</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D138" s="6">
         <v>0.29</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F138" s="6">
         <v>0.09</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H138" s="6">
         <v>-0.41</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J138" s="6">
         <v>-0.69</v>
@@ -6006,31 +6016,31 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B139" s="6">
         <v>3.48</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D139" s="6">
         <v>-0.08</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F139" s="6">
         <v>0.07</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H139" s="6">
         <v>-1.13</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J139" s="6">
         <v>0.98</v>
@@ -6038,31 +6048,31 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B140" s="6">
         <v>2.66</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D140" s="6">
         <v>1.43</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F140" s="6">
         <v>0.12</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H140" s="6">
         <v>1.55</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J140" s="6">
         <v>0.7</v>
@@ -6070,31 +6080,31 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B141" s="6">
         <v>1.85</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D141" s="6">
         <v>5.88</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F141" s="6">
         <v>0.11</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H141" s="6">
         <v>0.9</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J141" s="6">
         <v>0.13</v>
@@ -6102,31 +6112,31 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B142" s="6">
         <v>2.2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D142" s="6">
         <v>-1.21</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F142" s="6">
         <v>0.17</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H142" s="6">
         <v>-0.89</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J142" s="6">
         <v>2.13</v>
@@ -6134,31 +6144,31 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B143" s="6">
         <v>-7.47</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D143" s="6">
         <v>6.36</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F143" s="6">
         <v>0.14</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H143" s="6">
         <v>-1.93</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J143" s="6">
         <v>-0.98</v>
@@ -6166,31 +6176,31 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B144" s="6">
         <v>1.15</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D144" s="6">
         <v>2.78</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F144" s="6">
         <v>0.16</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H144" s="6">
         <v>2.68</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J144" s="6">
         <v>0.49</v>
@@ -6198,31 +6208,31 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B145" s="6">
         <v>-1.09</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D145" s="6">
         <v>4.21</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F145" s="6">
         <v>0.17</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H145" s="6">
         <v>0.52</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J145" s="6">
         <v>-0.36</v>
@@ -6230,31 +6240,31 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B146" s="6">
         <v>-4.65</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D146" s="6">
         <v>-5.71</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F146" s="6">
         <v>0.12</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H146" s="6">
         <v>-0.56</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J146" s="6">
         <v>-0.27</v>
@@ -6262,31 +6272,31 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B147" s="6">
         <v>0.53</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D147" s="6">
         <v>7.91</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F147" s="6">
         <v>0.17</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H147" s="6">
         <v>0.83</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J147" s="6">
         <v>-1.1</v>
@@ -6294,31 +6304,31 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B148" s="6">
         <v>2.99</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D148" s="6">
         <v>1.84</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F148" s="6">
         <v>0.19</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H148" s="6">
         <v>1.87</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J148" s="6">
         <v>0.7</v>
@@ -6326,31 +6336,31 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B149" s="6">
         <v>-1.48</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D149" s="6">
         <v>1.16</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F149" s="6">
         <v>0.22</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H149" s="6">
         <v>-0.24</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J149" s="6">
         <v>-0.14</v>
@@ -6358,31 +6368,31 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B150" s="6">
         <v>7.64</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D150" s="6">
         <v>-8.52</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F150" s="6">
         <v>0.23</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H150" s="6">
         <v>-0.29</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J150" s="6">
         <v>0.66</v>
@@ -6390,31 +6400,31 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B151" s="6">
         <v>-4.11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D151" s="6">
         <v>-4.58</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F151" s="6">
         <v>0.17</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H151" s="6">
         <v>1.84</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J151" s="6">
         <v>0.0</v>
@@ -6422,31 +6432,31 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B152" s="6">
         <v>-2.6</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D152" s="6">
         <v>4.24</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F152" s="6">
         <v>0.22</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H152" s="6">
         <v>-1.08</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J152" s="6">
         <v>-0.27</v>
@@ -6454,31 +6464,31 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B153" s="6">
         <v>-7.16</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D153" s="6">
         <v>-13.36</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F153" s="6">
         <v>0.19</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H153" s="6">
         <v>1.6</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J153" s="6">
         <v>-0.34</v>
@@ -6486,31 +6496,31 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B154" s="6">
         <v>-8.95</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D154" s="6">
         <v>-1.58</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F154" s="6">
         <v>0.23</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H154" s="6">
         <v>1.28</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J154" s="6">
         <v>1.38</v>
@@ -6518,31 +6528,31 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B155" s="6">
         <v>-3.02</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D155" s="6">
         <v>-8.97</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F155" s="6">
         <v>0.25</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H155" s="6">
         <v>0.2</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J155" s="6">
         <v>0.7</v>
@@ -6550,31 +6560,31 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B156" s="6">
         <v>7.14</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D156" s="6">
         <v>12.57</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F156" s="6">
         <v>0.14</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H156" s="6">
         <v>4.05</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J156" s="6">
         <v>0.9</v>
@@ -6582,31 +6592,31 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B157" s="6">
         <v>-3.96</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D157" s="6">
         <v>-5.15</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F157" s="6">
         <v>0.24</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H157" s="6">
         <v>-2.33</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J157" s="6">
         <v>0.38</v>
@@ -6614,31 +6624,31 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B158" s="6">
         <v>-2.24</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D158" s="6">
         <v>-10.57</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F158" s="6">
         <v>0.14</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H158" s="6">
         <v>0.86</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J158" s="6">
         <v>0.02</v>
@@ -6646,31 +6656,31 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B159" s="6">
         <v>-6.56</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D159" s="6">
         <v>3.97</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F159" s="6">
         <v>0.24</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H159" s="6">
         <v>-0.61</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J159" s="6">
         <v>1.8</v>
@@ -6678,31 +6688,31 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B160" s="6">
         <v>-0.2</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D160" s="6">
         <v>5.57</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F160" s="6">
         <v>0.1</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H160" s="6">
         <v>-0.21</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J160" s="6">
         <v>0.61</v>
@@ -6710,31 +6720,31 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B161" s="6">
         <v>13.18</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D161" s="6">
         <v>-9.04</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F161" s="6">
         <v>0.14</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H161" s="6">
         <v>-1.65</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J161" s="6">
         <v>-0.13</v>
@@ -6742,31 +6752,31 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B162" s="6">
         <v>0.5</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D162" s="6">
         <v>10.63</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F162" s="6">
         <v>0.14</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H162" s="6">
         <v>1.21</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J162" s="6">
         <v>-0.06</v>
@@ -6774,31 +6784,31 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B163" s="6">
         <v>-3.8</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D163" s="6">
         <v>-0.41</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F163" s="6">
         <v>0.23</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H163" s="6">
         <v>0.28</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J163" s="6">
         <v>-0.76</v>
@@ -6806,31 +6816,31 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B164" s="6">
         <v>3.98</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D164" s="6">
         <v>9.5</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F164" s="6">
         <v>0.48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H164" s="6">
         <v>1.45</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J164" s="6">
         <v>-2.38</v>
@@ -6838,31 +6848,31 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B165" s="6">
         <v>4.97</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D165" s="6">
         <v>0.49</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F165" s="6">
         <v>-0.02</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H165" s="6">
         <v>-0.6</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J165" s="6">
         <v>0.12</v>
@@ -6870,31 +6880,31 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B166" s="6">
         <v>2.43</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D166" s="6">
         <v>7.68</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F166" s="6">
         <v>-0.01</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H166" s="6">
         <v>-0.43</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J166" s="6">
         <v>0.19</v>
@@ -6902,31 +6912,31 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B167" s="6">
         <v>1.22</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D167" s="6">
         <v>6.51</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F167" s="6">
         <v>0.0</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H167" s="6">
         <v>-0.33</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J167" s="6">
         <v>0.68</v>
@@ -6934,31 +6944,31 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B168" s="6">
         <v>0.19</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D168" s="6">
         <v>3.81</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F168" s="6">
         <v>0.02</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H168" s="6">
         <v>3.14</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J168" s="6">
         <v>-0.06</v>
@@ -6966,31 +6976,31 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B169" s="6">
         <v>-4.67</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D169" s="6">
         <v>-1.55</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F169" s="6">
         <v>-0.01</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H169" s="6">
         <v>1.53</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J169" s="6">
         <v>0.77</v>
@@ -6998,31 +7008,31 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B170" s="6">
         <v>0.2</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D170" s="6">
         <v>-5.05</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F170" s="6">
         <v>0.0</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H170" s="6">
         <v>-0.04</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J170" s="6">
         <v>0.8</v>
@@ -7030,31 +7040,31 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B171" s="6">
         <v>5.43</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D171" s="6">
         <v>-2.07</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F171" s="6">
         <v>-0.01</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H171" s="6">
         <v>-0.11</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J171" s="6">
         <v>-0.1</v>
@@ -7062,31 +7072,31 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B172" s="6">
         <v>3.02</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D172" s="6">
         <v>10.77</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F172" s="6">
         <v>0.01</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H172" s="6">
         <v>-0.05</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J172" s="6">
         <v>0.43</v>
@@ -7094,31 +7104,31 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B173" s="6">
         <v>2.49</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D173" s="6">
         <v>5.51</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F173" s="6">
         <v>-0.01</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H173" s="6">
         <v>2.96</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J173" s="6">
         <v>0.9</v>
@@ -7126,31 +7136,31 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B174" s="6">
         <v>2.14</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D174" s="6">
         <v>1.86</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F174" s="6">
         <v>0.0</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H174" s="6">
         <v>0.26</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J174" s="6">
         <v>-0.48</v>
@@ -7158,31 +7168,31 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B175" s="6">
         <v>2.9</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D175" s="6">
         <v>5.36</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F175" s="6">
         <v>0.0</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H175" s="6">
         <v>-0.85</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J175" s="6">
         <v>0.05</v>
@@ -7190,31 +7200,31 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B176" s="6">
         <v>0.95</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D176" s="6">
         <v>1.2</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F176" s="6">
         <v>0.01</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H176" s="6">
         <v>0.03</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J176" s="6">
         <v>-0.13</v>
@@ -7222,31 +7232,31 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B177" s="6">
         <v>5.87</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D177" s="6">
         <v>-4.46</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F177" s="6">
         <v>-0.01</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H177" s="6">
         <v>-1.44</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J177" s="6">
         <v>0.44</v>
@@ -7254,31 +7264,31 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B178" s="6">
         <v>2.19</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D178" s="6">
         <v>6.35</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F178" s="6">
         <v>-0.02</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H178" s="6">
         <v>-4.04</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J178" s="6">
         <v>-1.14</v>
@@ -7286,31 +7296,31 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B179" s="6">
         <v>-0.47</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D179" s="6">
         <v>6.22</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F179" s="6">
         <v>-0.01</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H179" s="6">
         <v>-0.19</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J179" s="6">
         <v>-0.97</v>
@@ -7318,31 +7328,31 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B180" s="6">
         <v>3.41</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D180" s="6">
         <v>-1.63</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F180" s="6">
         <v>-0.01</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H180" s="6">
         <v>0.13</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J180" s="6">
         <v>0.62</v>
@@ -7350,31 +7360,31 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B181" s="6">
         <v>0.13</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D181" s="6">
         <v>1.14</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F181" s="6">
         <v>0.0</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H181" s="6">
         <v>0.77</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J181" s="6">
         <v>-0.74</v>
@@ -7382,31 +7392,31 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B182" s="6">
         <v>3.59</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D182" s="6">
         <v>2.53</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F182" s="6">
         <v>-0.01</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H182" s="6">
         <v>0.05</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J182" s="6">
         <v>0.71</v>
@@ -7414,31 +7424,31 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B183" s="6">
         <v>8.26</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D183" s="6">
         <v>-0.85</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F183" s="6">
         <v>-0.02</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H183" s="6">
         <v>1.08</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J183" s="6">
         <v>-0.13</v>
@@ -7446,25 +7456,25 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B184" s="6">
         <v>-4.67</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F184" s="6">
         <v>-0.02</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H184" s="6">
         <v>0.88</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J184" s="6">
         <v>0.03</v>
@@ -7472,25 +7482,25 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B185" s="6">
         <v>-2.0</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F185" s="6">
         <v>-0.03</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H185" s="6">
         <v>-0.58</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J185" s="6">
         <v>0.64</v>
@@ -7498,25 +7508,25 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B186" s="6">
         <v>-0.4</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F186" s="6">
         <v>-0.05</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H186" s="6">
         <v>0.36</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J186" s="6">
         <v>-0.66</v>
@@ -7524,25 +7534,25 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B187" s="6">
         <v>-3.59</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F187" s="6">
         <v>-0.03</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H187" s="6">
         <v>1.47</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J187" s="6">
         <v>-0.78</v>
@@ -7550,25 +7560,25 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B188" s="6">
         <v>-4.19</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F188" s="6">
         <v>-0.06</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H188" s="6">
         <v>-1.4</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J188" s="6">
         <v>0.59</v>
@@ -7576,25 +7586,25 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B189" s="6">
         <v>2.18</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F189" s="6">
         <v>-0.03</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H189" s="6">
         <v>-0.19</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J189" s="6">
         <v>1.82</v>
@@ -7602,25 +7612,25 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B190" s="6">
         <v>-2.77</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F190" s="6">
         <v>0.09</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H190" s="6">
         <v>-0.3</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J190" s="6">
         <v>1.07</v>
@@ -7628,25 +7638,25 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B191" s="6">
         <v>-0.53</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F191" s="6">
         <v>-0.11</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H191" s="6">
         <v>0.19</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J191" s="6">
         <v>-0.07</v>
@@ -7654,25 +7664,25 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B192" s="6">
         <v>-8.7</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F192" s="6">
         <v>0.1</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H192" s="6">
         <v>-2.19</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J192" s="6">
         <v>1.92</v>
@@ -7680,25 +7690,25 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B193" s="6">
         <v>4.05</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F193" s="6">
         <v>0.13</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H193" s="6">
         <v>-0.92</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J193" s="6">
         <v>0.04</v>
@@ -7706,25 +7716,25 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B194" s="6">
         <v>-2.7</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F194" s="6">
         <v>0.05</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H194" s="6">
         <v>1.22</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J194" s="6">
         <v>1.76</v>
@@ -7732,25 +7742,25 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B195" s="6">
         <v>8.71</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F195" s="6">
         <v>0.16</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H195" s="6">
         <v>-1.23</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J195" s="6">
         <v>1.24</v>
@@ -7758,25 +7768,25 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B196" s="6">
         <v>0.14</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F196" s="6">
         <v>0.31</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H196" s="6">
         <v>1.07</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J196" s="6">
         <v>0.23</v>
@@ -7784,25 +7794,25 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B197" s="6">
         <v>0.77</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F197" s="6">
         <v>0.39</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H197" s="6">
         <v>0.03</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J197" s="6">
         <v>2.59</v>
@@ -7810,25 +7820,25 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B198" s="6">
         <v>2.05</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F198" s="6">
         <v>0.34</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H198" s="6">
         <v>-0.56</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J198" s="6">
         <v>-0.54</v>
@@ -7836,25 +7846,25 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B199" s="6">
         <v>-7.3</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F199" s="6">
         <v>0.29</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H199" s="6">
         <v>1.11</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J199" s="6">
         <v>0.29</v>
@@ -7862,25 +7872,25 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B200" s="6">
         <v>6.24</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F200" s="6">
         <v>0.49</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H200" s="6">
         <v>-1.34</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J200" s="6">
         <v>-0.05</v>
@@ -7888,25 +7898,25 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B201" s="6">
         <v>-1.26</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F201" s="6">
         <v>0.32</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H201" s="6">
         <v>-0.33</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J201" s="6">
         <v>-0.07</v>
@@ -7914,25 +7924,25 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B202" s="6">
         <v>-4.96</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F202" s="6">
         <v>0.34</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H202" s="6">
         <v>1.35</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J202" s="6">
         <v>1.91</v>
@@ -7940,25 +7950,25 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B203" s="6">
         <v>1.84</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F203" s="6">
         <v>0.44</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H203" s="6">
         <v>2.71</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J203" s="6">
         <v>1.78</v>
@@ -7966,25 +7976,25 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B204" s="6">
         <v>4.17</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F204" s="6">
         <v>0.41</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H204" s="6">
         <v>0.72</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J204" s="6">
         <v>-0.65</v>
@@ -7992,25 +8002,25 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B205" s="6">
         <v>-0.23</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F205" s="6">
         <v>0.45</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H205" s="6">
         <v>-0.37</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J205" s="6">
         <v>1.81</v>
@@ -8018,25 +8028,25 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B206" s="6">
         <v>7.46</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F206" s="6">
         <v>0.44</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H206" s="6">
         <v>2.49</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J206" s="6">
         <v>0.46</v>
@@ -8044,25 +8054,25 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B207" s="6">
         <v>-4.73</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F207" s="6">
         <v>0.44</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H207" s="6">
         <v>-0.44</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J207" s="6">
         <v>0.63</v>
@@ -8070,25 +8080,25 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B208" s="6">
         <v>-5.3</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F208" s="6">
         <v>0.48</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H208" s="6">
         <v>2.98</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J208" s="6">
         <v>1.5</v>
@@ -8096,25 +8106,25 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B209" s="6">
         <v>-15.42</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F209" s="6">
         <v>0.49</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H209" s="6">
         <v>1.36</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J209" s="6">
         <v>-0.81</v>
@@ -8122,25 +8132,25 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B210" s="6">
         <v>8.48</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F210" s="6">
         <v>0.42</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H210" s="6">
         <v>-0.12</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J210" s="6">
         <v>-0.06</v>
@@ -8148,25 +8158,25 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B211" s="6">
         <v>1.4</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F211" s="6">
         <v>0.36</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H211" s="6">
         <v>3.95</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J211" s="6">
         <v>-0.45</v>
@@ -8174,25 +8184,25 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B212" s="6">
         <v>7.2</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F212" s="6">
         <v>0.44</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H212" s="6">
         <v>-1.1</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J212" s="6">
         <v>0.99</v>
@@ -8200,25 +8210,25 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B213" s="6">
         <v>8.86</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F213" s="6">
         <v>0.39</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H213" s="6">
         <v>0.16</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J213" s="6">
         <v>0.12</v>
@@ -8226,25 +8236,25 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B214" s="6">
         <v>2.16</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F214" s="6">
         <v>0.47</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H214" s="6">
         <v>-0.66</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J214" s="6">
         <v>-0.71</v>
@@ -8252,25 +8262,25 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B215" s="6">
         <v>-1.64</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F215" s="6">
         <v>0.41</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H215" s="6">
         <v>-0.76</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J215" s="6">
         <v>-1.48</v>
@@ -8278,25 +8288,25 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B216" s="6">
         <v>1.96</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F216" s="6">
         <v>0.48</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H216" s="6">
         <v>3.21</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J216" s="6">
         <v>-1.24</v>
@@ -8304,25 +8314,25 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B217" s="6">
         <v>9.2</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F217" s="6">
         <v>0.5</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H217" s="6">
         <v>3.1</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J217" s="6">
         <v>0.79</v>
@@ -8330,25 +8340,25 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B218" s="6">
         <v>7.27</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F218" s="6">
         <v>0.45</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H218" s="6">
         <v>3.63</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J218" s="6">
         <v>0.3</v>
@@ -8356,25 +8366,25 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B219" s="6">
         <v>3.03</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F219" s="6">
         <v>0.35</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H219" s="6">
         <v>0.53</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J219" s="6">
         <v>0.72</v>
@@ -8382,19 +8392,19 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B220" s="6">
         <v>0.6</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H220" s="6">
         <v>0.11</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J220" s="6">
         <v>1.12</v>
@@ -8402,19 +8412,19 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B221" s="6">
         <v>-1.51</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H221" s="6">
         <v>0.06</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J221" s="6">
         <v>-0.19</v>
@@ -8422,19 +8432,19 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B222" s="6">
         <v>2.42</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H222" s="6">
         <v>0.84</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J222" s="6">
         <v>-0.86</v>
@@ -8442,19 +8452,19 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B223" s="6">
         <v>1.14</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H223" s="6">
         <v>-0.85</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J223" s="6">
         <v>-0.05</v>
@@ -8462,19 +8472,19 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B224" s="6">
         <v>1.28</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H224" s="6">
         <v>0.26</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J224" s="6">
         <v>0.3</v>
@@ -8482,19 +8492,19 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B225" s="6">
         <v>-6.88</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H225" s="6">
         <v>-1.32</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J225" s="6">
         <v>-0.33</v>
@@ -8502,19 +8512,19 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B226" s="6">
         <v>2.18</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H226" s="6">
         <v>0.28</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J226" s="6">
         <v>-2.08</v>
@@ -8522,19 +8532,19 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B227" s="6">
         <v>-4.01</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H227" s="6">
         <v>-0.29</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J227" s="6">
         <v>-1.12</v>
@@ -8542,19 +8552,19 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B228" s="6">
         <v>0.89</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H228" s="6">
         <v>-1.08</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J228" s="6">
         <v>-2.77</v>
@@ -8562,19 +8572,19 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B229" s="6">
         <v>-4.2</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H229" s="6">
         <v>-2.43</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J229" s="6">
         <v>-3.78</v>
@@ -8582,19 +8592,19 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B230" s="6">
         <v>1.84</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H230" s="6">
         <v>-2.35</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J230" s="6">
         <v>0.65</v>
@@ -8602,19 +8612,19 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B231" s="6">
         <v>-0.29</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H231" s="6">
         <v>1.01</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J231" s="6">
         <v>-1.56</v>
@@ -8622,19 +8632,19 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B232" s="6">
         <v>-5.0</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H232" s="6">
         <v>0.39</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J232" s="6">
         <v>2.42</v>
@@ -8642,19 +8652,19 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B233" s="6">
         <v>-2.66</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H233" s="6">
         <v>1.05</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J233" s="6">
         <v>-2.79</v>
@@ -8662,19 +8672,19 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B234" s="6">
         <v>-5.73</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H234" s="6">
         <v>1.97</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J234" s="6">
         <v>-4.31</v>
@@ -8682,19 +8692,19 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B235" s="6">
         <v>0.91</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H235" s="6">
         <v>-0.37</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J235" s="6">
         <v>-1.3</v>
@@ -8702,19 +8712,19 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B236" s="6">
         <v>-5.84</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H236" s="6">
         <v>-1.61</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J236" s="6">
         <v>3.69</v>
@@ -8722,19 +8732,19 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B237" s="6">
         <v>-0.5</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H237" s="6">
         <v>-0.47</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J237" s="6">
         <v>-0.64</v>
@@ -8742,19 +8752,19 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B238" s="6">
         <v>-0.48</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H238" s="6">
         <v>1.08</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J238" s="6">
         <v>3.25</v>
@@ -8762,19 +8772,19 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B239" s="6">
         <v>-11.6</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H239" s="6">
         <v>-0.4</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J239" s="6">
         <v>-2.58</v>
@@ -8782,19 +8792,19 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B240" s="6">
         <v>-2.65</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H240" s="6">
         <v>-2.18</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J240" s="6">
         <v>2.54</v>
@@ -8802,19 +8812,19 @@
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B241" s="6">
         <v>16.04</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H241" s="6">
         <v>-0.41</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J241" s="6">
         <v>0.59</v>
@@ -8822,19 +8832,19 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B242" s="6">
         <v>-2.72</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H242" s="6">
         <v>-4.03</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J242" s="6">
         <v>-1.08</v>
@@ -8842,19 +8852,19 @@
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B243" s="6">
         <v>8.54</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H243" s="6">
         <v>-4.17</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J243" s="6">
         <v>-0.36</v>
@@ -8862,19 +8872,19 @@
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B244" s="6">
         <v>-7.08</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H244" s="6">
         <v>0.66</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J244" s="6">
         <v>-0.07</v>
@@ -8882,19 +8892,19 @@
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B245" s="6">
         <v>3.25</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H245" s="6">
         <v>-0.98</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J245" s="6">
         <v>-0.64</v>
@@ -8902,19 +8912,19 @@
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B246" s="6">
         <v>-0.81</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H246" s="6">
         <v>3.01</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J246" s="6">
         <v>-2.53</v>
@@ -8922,19 +8932,19 @@
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B247" s="6">
         <v>-2.2</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H247" s="6">
         <v>-3.88</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J247" s="6">
         <v>-1.57</v>
@@ -8942,19 +8952,19 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B248" s="6">
         <v>4.08</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H248" s="6">
         <v>-4.71</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J248" s="6">
         <v>4.51</v>
@@ -8962,19 +8972,19 @@
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B249" s="6">
         <v>6.12</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H249" s="6">
         <v>-1.49</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J249" s="6">
         <v>3.71</v>
@@ -8982,19 +8992,19 @@
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B250" s="6">
         <v>-6.58</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H250" s="6">
         <v>3.57</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J250" s="6">
         <v>-0.17</v>
@@ -9002,19 +9012,19 @@
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B251" s="6">
         <v>-2.81</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H251" s="6">
         <v>-1.39</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J251" s="6">
         <v>-1.41</v>
@@ -9022,19 +9032,19 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B252" s="6">
         <v>-3.56</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H252" s="6">
         <v>3.52</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J252" s="6">
         <v>0.84</v>
@@ -9042,19 +9052,19 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B253" s="6">
         <v>7.58</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H253" s="6">
         <v>-3.24</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J253" s="6">
         <v>-2.44</v>
@@ -9062,19 +9072,19 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B254" s="6">
         <v>3.63</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H254" s="6">
         <v>3.7</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J254" s="6">
         <v>1.69</v>
@@ -9082,19 +9092,19 @@
     </row>
     <row r="255">
       <c r="A255" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B255" s="6">
         <v>-4.66</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H255" s="6">
         <v>0.82</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J255" s="6">
         <v>0.93</v>
@@ -9102,19 +9112,19 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B256" s="6">
         <v>4.68</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H256" s="6">
         <v>-1.44</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J256" s="6">
         <v>2.35</v>
@@ -9122,19 +9132,19 @@
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B257" s="6">
         <v>2.41</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H257" s="6">
         <v>-1.26</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J257" s="6">
         <v>1.44</v>
@@ -9142,19 +9152,19 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B258" s="6">
         <v>-0.18</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H258" s="6">
         <v>-0.62</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J258" s="6">
         <v>1.34</v>
@@ -9162,19 +9172,19 @@
     </row>
     <row r="259">
       <c r="A259" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B259" s="6">
         <v>1.57</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H259" s="6">
         <v>-0.77</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J259" s="6">
         <v>-2.48</v>
@@ -9182,583 +9192,427 @@
     </row>
     <row r="260">
       <c r="A260" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B260" s="6">
         <v>3.1</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H260" s="6">
         <v>-3.11</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J260" s="6">
-        <v>2.04</v>
-      </c>
+      <c r="I260" s="4"/>
+      <c r="J260" s="6"/>
     </row>
     <row r="261">
       <c r="A261" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B261" s="6">
         <v>0.7</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H261" s="6">
         <v>-1.93</v>
       </c>
-      <c r="I261" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="J261" s="6">
-        <v>-5.67</v>
-      </c>
+      <c r="I261" s="4"/>
+      <c r="J261" s="6"/>
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B262" s="6">
         <v>0.99</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H262" s="6">
         <v>4.47</v>
       </c>
-      <c r="I262" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J262" s="6">
-        <v>7.08</v>
-      </c>
+      <c r="I262" s="4"/>
+      <c r="J262" s="6"/>
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B263" s="6">
         <v>5.73</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H263" s="6">
         <v>3.81</v>
       </c>
-      <c r="I263" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J263" s="6">
-        <v>-2.27</v>
-      </c>
+      <c r="I263" s="4"/>
+      <c r="J263" s="6"/>
     </row>
     <row r="264">
       <c r="A264" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B264" s="6">
         <v>-3.58</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H264" s="6">
         <v>0.03</v>
       </c>
-      <c r="I264" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="J264" s="6">
-        <v>9.43</v>
-      </c>
+      <c r="I264" s="4"/>
+      <c r="J264" s="6"/>
     </row>
     <row r="265">
       <c r="G265" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H265" s="6">
         <v>-2.05</v>
       </c>
-      <c r="I265" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="J265" s="6">
-        <v>-8.16</v>
-      </c>
+      <c r="I265" s="4"/>
+      <c r="J265" s="6"/>
     </row>
     <row r="266">
       <c r="G266" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H266" s="6">
         <v>0.69</v>
       </c>
-      <c r="I266" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="J266" s="6">
-        <v>-4.53</v>
-      </c>
+      <c r="I266" s="4"/>
+      <c r="J266" s="6"/>
     </row>
     <row r="267">
       <c r="G267" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H267" s="6">
         <v>-3.05</v>
       </c>
-      <c r="I267" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J267" s="6">
-        <v>6.55</v>
-      </c>
+      <c r="I267" s="4"/>
+      <c r="J267" s="6"/>
     </row>
     <row r="268">
       <c r="G268" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H268" s="6">
         <v>1.79</v>
       </c>
-      <c r="I268" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="J268" s="6">
-        <v>-4.0</v>
-      </c>
+      <c r="I268" s="4"/>
+      <c r="J268" s="6"/>
     </row>
     <row r="269">
       <c r="G269" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H269" s="6">
         <v>1.24</v>
       </c>
-      <c r="I269" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J269" s="6">
-        <v>-4.39</v>
-      </c>
+      <c r="I269" s="4"/>
+      <c r="J269" s="6"/>
     </row>
     <row r="270">
       <c r="G270" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H270" s="6">
         <v>2.89</v>
       </c>
-      <c r="I270" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J270" s="6">
-        <v>-6.9</v>
-      </c>
+      <c r="I270" s="4"/>
+      <c r="J270" s="6"/>
     </row>
     <row r="271">
       <c r="G271" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H271" s="6">
         <v>1.39</v>
       </c>
-      <c r="I271" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J271" s="6">
-        <v>8.83</v>
-      </c>
+      <c r="I271" s="4"/>
+      <c r="J271" s="6"/>
     </row>
     <row r="272">
       <c r="G272" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H272" s="6">
         <v>1.32</v>
       </c>
-      <c r="I272" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="J272" s="6">
-        <v>-5.81</v>
-      </c>
+      <c r="I272" s="4"/>
+      <c r="J272" s="6"/>
     </row>
     <row r="273">
       <c r="G273" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H273" s="6">
         <v>-3.34</v>
       </c>
-      <c r="I273" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J273" s="6">
-        <v>-12.69</v>
-      </c>
+      <c r="I273" s="4"/>
+      <c r="J273" s="6"/>
     </row>
     <row r="274">
       <c r="G274" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H274" s="6">
         <v>-9.21</v>
       </c>
-      <c r="I274" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="J274" s="6">
-        <v>3.12</v>
-      </c>
+      <c r="I274" s="4"/>
+      <c r="J274" s="6"/>
     </row>
     <row r="275">
       <c r="G275" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H275" s="6">
         <v>8.09</v>
       </c>
-      <c r="I275" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J275" s="6">
-        <v>6.25</v>
-      </c>
+      <c r="I275" s="4"/>
+      <c r="J275" s="6"/>
     </row>
     <row r="276">
       <c r="G276" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H276" s="6">
         <v>5.59</v>
       </c>
-      <c r="I276" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="J276" s="6">
-        <v>-4.78</v>
-      </c>
+      <c r="I276" s="4"/>
+      <c r="J276" s="6"/>
     </row>
     <row r="277">
       <c r="G277" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H277" s="6">
         <v>-5.76</v>
       </c>
-      <c r="I277" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J277" s="6">
-        <v>9.95</v>
-      </c>
+      <c r="I277" s="4"/>
+      <c r="J277" s="6"/>
     </row>
     <row r="278">
       <c r="G278" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H278" s="6">
         <v>6.28</v>
       </c>
-      <c r="I278" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="J278" s="6">
-        <v>-5.99</v>
-      </c>
+      <c r="I278" s="4"/>
+      <c r="J278" s="6"/>
     </row>
     <row r="279">
       <c r="G279" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H279" s="6">
         <v>-2.44</v>
       </c>
-      <c r="I279" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J279" s="6">
-        <v>-1.83</v>
-      </c>
+      <c r="I279" s="4"/>
+      <c r="J279" s="6"/>
     </row>
     <row r="280">
       <c r="G280" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H280" s="6">
         <v>3.67</v>
       </c>
-      <c r="I280" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J280" s="6">
-        <v>0.88</v>
-      </c>
+      <c r="I280" s="4"/>
+      <c r="J280" s="6"/>
     </row>
     <row r="281">
       <c r="G281" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H281" s="6">
         <v>1.56</v>
       </c>
-      <c r="I281" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J281" s="6">
-        <v>-4.04</v>
-      </c>
+      <c r="I281" s="4"/>
+      <c r="J281" s="6"/>
     </row>
     <row r="282">
       <c r="G282" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H282" s="6">
         <v>0.43</v>
       </c>
-      <c r="I282" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="J282" s="6">
-        <v>5.73</v>
-      </c>
+      <c r="I282" s="4"/>
+      <c r="J282" s="6"/>
     </row>
     <row r="283">
       <c r="G283" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H283" s="6">
         <v>6.6</v>
       </c>
-      <c r="I283" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="J283" s="6">
-        <v>1.74</v>
-      </c>
+      <c r="I283" s="4"/>
+      <c r="J283" s="6"/>
     </row>
     <row r="284">
       <c r="G284" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H284" s="6">
         <v>3.21</v>
       </c>
-      <c r="I284" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J284" s="6">
-        <v>-3.14</v>
-      </c>
+      <c r="I284" s="4"/>
+      <c r="J284" s="6"/>
     </row>
     <row r="285">
       <c r="G285" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H285" s="6">
         <v>-1.58</v>
       </c>
-      <c r="I285" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J285" s="6">
-        <v>-7.31</v>
-      </c>
+      <c r="I285" s="4"/>
+      <c r="J285" s="6"/>
     </row>
     <row r="286">
       <c r="G286" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H286" s="6">
         <v>-4.77</v>
       </c>
-      <c r="I286" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="J286" s="6">
-        <v>-3.6</v>
-      </c>
+      <c r="I286" s="4"/>
+      <c r="J286" s="6"/>
     </row>
     <row r="287">
       <c r="G287" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H287" s="6">
         <v>-2.1</v>
       </c>
-      <c r="I287" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J287" s="6">
-        <v>12.26</v>
-      </c>
+      <c r="I287" s="4"/>
+      <c r="J287" s="6"/>
     </row>
     <row r="288">
       <c r="G288" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H288" s="6">
         <v>9.13</v>
       </c>
-      <c r="I288" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J288" s="6">
-        <v>8.97</v>
-      </c>
+      <c r="I288" s="4"/>
+      <c r="J288" s="6"/>
     </row>
     <row r="289">
       <c r="G289" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H289" s="6">
         <v>4.54</v>
       </c>
-      <c r="I289" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J289" s="6">
-        <v>-4.99</v>
-      </c>
+      <c r="I289" s="4"/>
+      <c r="J289" s="6"/>
     </row>
     <row r="290">
       <c r="G290" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H290" s="6">
         <v>1.68</v>
       </c>
-      <c r="I290" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="J290" s="6">
-        <v>2.04</v>
-      </c>
+      <c r="I290" s="4"/>
+      <c r="J290" s="6"/>
     </row>
     <row r="291">
       <c r="G291" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H291" s="6">
         <v>5.33</v>
       </c>
-      <c r="I291" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J291" s="6">
-        <v>1.88</v>
-      </c>
+      <c r="I291" s="4"/>
+      <c r="J291" s="6"/>
     </row>
     <row r="292">
       <c r="G292" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H292" s="6">
         <v>3.22</v>
       </c>
-      <c r="I292" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J292" s="6">
-        <v>-8.11</v>
-      </c>
+      <c r="I292" s="4"/>
+      <c r="J292" s="6"/>
     </row>
     <row r="293">
       <c r="G293" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H293" s="6">
         <v>-4.09</v>
       </c>
-      <c r="I293" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="J293" s="6">
-        <v>4.85</v>
-      </c>
+      <c r="I293" s="4"/>
+      <c r="J293" s="6"/>
     </row>
     <row r="294">
       <c r="G294" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H294" s="6">
         <v>4.96</v>
       </c>
-      <c r="I294" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="J294" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="I294" s="4"/>
+      <c r="J294" s="6"/>
     </row>
     <row r="295">
       <c r="G295" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H295" s="6">
         <v>3.59</v>
       </c>
-      <c r="I295" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="J295" s="6">
-        <v>7.45</v>
-      </c>
+      <c r="I295" s="4"/>
+      <c r="J295" s="6"/>
     </row>
     <row r="296">
       <c r="G296" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H296" s="6">
         <v>1.22</v>
       </c>
-      <c r="I296" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="J296" s="6">
-        <v>5.45</v>
-      </c>
+      <c r="I296" s="4"/>
+      <c r="J296" s="6"/>
     </row>
     <row r="297">
       <c r="G297" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H297" s="6">
         <v>2.42</v>
       </c>
-      <c r="I297" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J297" s="6">
-        <v>3.18</v>
-      </c>
+      <c r="I297" s="4"/>
+      <c r="J297" s="6"/>
     </row>
     <row r="298">
       <c r="G298" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H298" s="6">
         <v>2.13</v>
       </c>
-      <c r="I298" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J298" s="6">
-        <v>-3.59</v>
-      </c>
+      <c r="I298" s="4"/>
+      <c r="J298" s="6"/>
     </row>
     <row r="299">
       <c r="G299" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H299" s="6">
         <v>-0.91</v>
